--- a/Test_Journey_get_offroute_data_df.xlsx
+++ b/Test_Journey_get_offroute_data_df.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,474 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ARIMA((0, 1, 0))</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SAINSBURYS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SOMERSET</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17/08/2019</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>51.2171374315559</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.33200661331894</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SAINSBURYS FROME</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>BA11 4DH</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>126.87</v>
+      </c>
+      <c r="O3" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>MARSTON ROAD</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>FROME</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Additive</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WILTSHIRE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09/08/2019</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>51.2178514153014</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2.19998588637996</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>A36 WARMINSTER SERVICE AREA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>BA12 7RU</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>128.88</v>
+      </c>
+      <c r="O4" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BATH ROAD</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>WARMINSTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Additive</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SHELL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SOMERSET</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11/08/2019</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>51.2429256459164</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.29176511193396</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FROME SERVICE STATION</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>BA11 2RY</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>128.88</v>
+      </c>
+      <c r="O5" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SOUTHGATE</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>FROME</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TEXACO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SOMERSET</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17/08/2019</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>51.227589605862</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-2.31445273169882</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CENTRAL C-STORES FROME</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>BA11 1QS</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PORTWAY</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>FROME</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SOMERSET</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11/08/2019</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>51.2693080921672</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2.28433530861352</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BECKINGTON SF CONNECT</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>BA11 6SF</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>TROWBRIDGE ROAD</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>BATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Additive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ESSO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SOMERSET</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11/08/2019</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Unleaded</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>51.201507968634</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2.37697983629048</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NUNNEY CATCH SERVICES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>BA11 4NZ</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>132.94</v>
+      </c>
+      <c r="O8" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>BA11 5LA</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NUNNEY ROAD</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FROME</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
